--- a/DOM_Banner/output/dept0713/Joseph S Alpert_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Joseph S Alpert_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>, University of Arizona School of Medicine, Tucson; Editor in Chief,; The American Journal of Medicine</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4291377760</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>New Coronary Heart Disease Risk Factors</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-04-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>The American Journal of Medicine</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2022.08.002</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35981648</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2022.08.002</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>The American Journal of Medicine; University of Arizona School of Medicine, Tucson</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4291377786</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Vasodilator Therapy in Hot Weather: A Warning</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-03-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>The American Journal of Medicine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2022.08.003</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35981649</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2022.08.003</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Department of Medicine, University of Arizona, Tucson; Editor in Chief; The American Journal of Medicine</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4310677416</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>The Meaning of Life: To Serve Others</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>The American Journal of Medicine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2022.11.006</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36473501</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2022.11.006</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Editor in Chief,; The Amercian Journal of Medicine; University of Arizona School of Medicine, Tucson</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4317930357</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Remarkable Advances in Clinical Medicine that Have Occurred Since I Was an Intern</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>The American Journal of Medicine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2023.01.003</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36707014</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2023.01.003</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>New York Medical College/Westchester Medical Center, Valhalla; Supplements Editor,; The American Journal of Medicine; Department of Medicine, University of Arizona, Tucson; Editor in Chief,; The American Journal of Medicine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4318594540</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Commotio Cordis and the Triumph of Out-of-Hospital Cardiopulmonary Resuscitation</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-05-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>The American Journal of Medicine</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2023.01.007</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36736646</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2023.01.007</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,39 +887,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Editor in Chief,; The American Journal of Medicine; University of Arizona School of Medicine, Tucson</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4321350851</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>The Universal Panacea: Chicken Soup</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-12-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>The American Journal of Medicine</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2023.02.003</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -897,35 +927,40 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36809812</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2023.02.003</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Editor in Chief,; The American Journal of Medicine; University of Arizona School of Medicine, Tucson</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4281626793</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Plus ça change, plus c'est la même chose* [The More Things Change, the More They Remain the Same.]</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>The American Journal of Medicine</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2022.05.012</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35636481</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2022.05.012</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,39 +1061,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t xml:space="preserve">Professor of Medicine, University of Arizona College of Medicine, Tucson, Arizona, USA; </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4285606955</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Microwaving Food in Plastic Containers</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-02-01</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>The American Journal of Medicine</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2022.07.003</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1061,35 +1101,40 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35853480</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2022.07.003</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,75 +1148,80 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Editor in Chief,; The American Journal of Medicine; The University of Arizona College of Medicine, Tucson</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4294549797</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Should We Continue to Administer Beta-Blockers to Patients with an Acute Myocardial Infarction?</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023-08-01</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>The American Journal of Medicine</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2022.08.026</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36063862</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2022.08.026</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1185,75 +1235,80 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Editor in Chief,; School of Medicine, University of Arizona, Tucson; The American Journal of Medicine</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4306168973</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Is Retirement Meant for You?</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>The American Journal of Medicine</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2022.10.001</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36252716</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2022.10.001</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1267,75 +1322,80 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Department of Medicine, University of Arizona, Tucson; Editor in Chief; The American Journal of Medicine</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4317663753</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Twenty-First Century Health Care Challenges in the United States</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023-07-01</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>The American Journal of Medicine</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2023.01.002</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36693443</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2023.01.002</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1349,75 +1409,80 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Editor in Chief,; The American Journal of Medicine; University of Arizona School of Medicine, Tucson</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4318391188</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Bicuspid Aortic Valve Disease – Evolving Concepts with Clinical Relevance</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2023-11-01</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>The American Journal of Medicine</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2022.12.037</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36707013</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2022.12.037</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1431,39 +1496,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>Clinic of Heart and Vessel Diseases, Institute of Clinical Medicine, Faculty of Medicine, Vilnius University, Vilnius, Lithuania; Clinic of Heart and Vessel Diseases, Institute of Clinical Medicine, Faculty of Medicine, Vilnius University, Vilnius, Lithuania; Clinic of Heart and Vessel Diseases, Institute of Clinical Medicine, Faculty of Medicine, Vilnius University, Vilnius, Lithuania; Clinic of Heart and Vessel Diseases, Institute of Clinical Medicine, Faculty of Medicine, Vilnius University, Vilnius, Lithuania; Clinic of Heart and Vessel Diseases, Institute of Clinical Medicine, Faculty of Medicine, Vilnius University, Vilnius, Lithuania; Clinic of Heart and Vessel Diseases, Institute of Clinical Medicine, Faculty of Medicine, Vilnius University, Vilnius, Lithuania; Faculty of Medicine, Vilnius University, Vilnius, Lithuania; Clinic of Heart and Vessel Diseases, Institute of Clinical Medicine, Faculty of Medicine, Vilnius University, Vilnius, Lithuania; Department of Medicine, University of Arizona Medical School, Tucson, USA; Department of Medicine, University of Arizona Medical School, Tucson, USA; Clinic of Heart and Vessel Diseases, Institute of Clinical Medicine, Faculty of Medicine, Vilnius University, Vilnius, Lithuania</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4362602658</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Type 2 Myocardial Infarction and Long-Term Mortality Risk Factors: A Retrospective Cohort Study</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2023-04-05</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Advances in Therapy</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Adis, Springer Healthcare</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s12325-023-02485-2</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1471,35 +1536,40 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37017913</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s12325-023-02485-2</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1513,75 +1583,80 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>Department of Medicine, University of Arizona, Tucson; Editor in Chief; The American Journal of Medicine</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4368367587</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Hey, Doc, Should I be Taking Vitamin D Capsules Just Like My Neighbor?</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2023-05-01</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>The American Journal of Medicine</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2023.04.024</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I15" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37148988</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2023.04.024</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1595,75 +1670,80 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>University of Arizona School of Medicine, Tucson</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4383533305</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Leprosy in Literature and Art: The Covenant of Water</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2023-07-01</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>The American Journal of Medicine</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2023.06.016</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I16" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37423434</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2023.06.016</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1677,75 +1757,80 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>Editor in Chief,; The American Journal of Medicine; University of Arizona School of Medicine, Tucson</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4383558955</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Face-to-Face Versus Digital Encounters in the Clinic</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2023-07-01</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>The American Journal of Medicine</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2023.06.015</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I17" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37423431</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2023.06.015</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1759,75 +1844,80 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>The American Journal of Medicine, University of Arizona College of Medicine, Tucson, Arizona, USA; Department of Pharmacy Practice and Science, University of Arizona College of Pharmacy, Tucson, AZ</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4383559832</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Pharmacogenomics of Statins: A View from ChatGPT</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2023-07-01</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>The American Journal of Medicine</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2023.06.014</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I18" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37423432</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2023.06.014</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1841,75 +1931,80 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>University of Arizona School of Medicine, Tucson</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4385740070</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Medical Jeopardy Quiz: Zoonoses – What Disease Is Related to These Animals?</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2023-08-01</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>The American Journal of Medicine</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2023.07.015</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I19" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37572745</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2023.07.015</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1923,75 +2018,80 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>The Department of Medicine New York Medical College/ Westchester Medical Center; The University of Arizona School of Medicine, Tucson</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4386575314</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Greens Replacing Whites: The Death of the White Hospital Uniform?</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>The American Journal of Medicine</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2023.08.020</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I20" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37696351</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2023.08.020</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2000,80 +2100,85 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Susan Alpert, Kiril Solovey, Itzik Klein, Oren Salzman</t>
+          <t>Joseph S. Alpert</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386721834</t>
+          <t>University of Arizona School of Medicine, Editor-in-Chief, The American Journal of Medicin, 1501 N. Campbell Avenue, Tucson, AZ 85724-5037</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Inspection planning under execution uncertainty</t>
+          <t>https://openalex.org/W4387910389</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2023-09-12</t>
+          <t>Twelve interesting biological tidbits</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>arXiv (Cornell University)</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Cornell University</t>
+          <t>The American Journal of Medicine</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://arxiv.org/abs/2309.06113</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1016/j.amjmed.2023.10.015</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.48550/arxiv.2309.06113</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37879589</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.amjmed.2023.10.015</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2087,75 +2192,80 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387910389</t>
+          <t>University of Arizona School of Medicine, Tucson</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Twelve interesting biological tidbits</t>
+          <t>https://openalex.org/W4389849778</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>Should physicians and nurses ever sit on the patient's bed?</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>2023-12-01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>The American Journal of Medicine</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.amjmed.2023.10.015</t>
-        </is>
-      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1016/j.amjmed.2023.12.013</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37879589</t>
-        </is>
-      </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.amjmed.2023.10.015</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/38110068</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.amjmed.2023.12.013</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2164,42 +2274,42 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Joseph S. Alpert</t>
+          <t>Susan Alpert, Kiril Solovey, Itzik Klein, Oren Salzman</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389849778</t>
+          <t xml:space="preserve">; ; ; </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Should physicians and nurses ever sit on the patient's bed?</t>
+          <t>https://openalex.org/W4386721834</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
+          <t>Inspection planning under execution uncertainty</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>The American Journal of Medicine</t>
+          <t>2023-09-12</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>arXiv (Cornell University)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.amjmed.2023.12.013</t>
+          <t>Cornell University</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://arxiv.org/abs/2309.06113</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2209,35 +2319,40 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/38110068</t>
-        </is>
-      </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.amjmed.2023.12.013</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.48550/arxiv.2309.06113</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Joseph S Alpert_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Joseph S Alpert_2023.xlsx
@@ -534,27 +534,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Joseph S. Alpert</t>
+          <t>William H. Frishman, Joseph S. Alpert</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The American Journal of Medicine; University of Arizona School of Medicine, Tucson</t>
+          <t>New York Medical College/Westchester Medical Center, Valhalla; Supplements Editor,; The American Journal of Medicine; Department of Medicine, University of Arizona, Tucson; Editor in Chief,; The American Journal of Medicine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4291377786</t>
+          <t>https://openalex.org/W4318594540</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Vasodilator Therapy in Hot Weather: A Warning</t>
+          <t>Commotio Cordis and the Triumph of Out-of-Hospital Cardiopulmonary Resuscitation</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2023-03-01</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.amjmed.2022.08.003</t>
+          <t>https://doi.org/10.1016/j.amjmed.2023.01.007</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -604,12 +604,12 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/35981649</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36736646</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.amjmed.2022.08.003</t>
+          <t>https://doi.org/10.1016/j.amjmed.2023.01.007</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Department of Medicine, University of Arizona, Tucson; Editor in Chief; The American Journal of Medicine</t>
+          <t>The American Journal of Medicine; University of Arizona School of Medicine, Tucson</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4310677416</t>
+          <t>https://openalex.org/W4291377786</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The Meaning of Life: To Serve Others</t>
+          <t>Vasodilator Therapy in Hot Weather: A Warning</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-03-01</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.amjmed.2022.11.006</t>
+          <t>https://doi.org/10.1016/j.amjmed.2022.08.003</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -691,12 +691,12 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36473501</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/35981649</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.amjmed.2022.11.006</t>
+          <t>https://doi.org/10.1016/j.amjmed.2022.08.003</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -713,22 +713,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Editor in Chief,; The Amercian Journal of Medicine; University of Arizona School of Medicine, Tucson</t>
+          <t>Department of Medicine, University of Arizona, Tucson; Editor in Chief; The American Journal of Medicine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4317930357</t>
+          <t>https://openalex.org/W4310677416</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Remarkable Advances in Clinical Medicine that Have Occurred Since I Was an Intern</t>
+          <t>The Meaning of Life: To Serve Others</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.amjmed.2023.01.003</t>
+          <t>https://doi.org/10.1016/j.amjmed.2022.11.006</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -778,12 +778,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36707014</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36473501</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.amjmed.2023.01.003</t>
+          <t>https://doi.org/10.1016/j.amjmed.2022.11.006</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -795,27 +795,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>William H. Frishman, Joseph S. Alpert</t>
+          <t>Joseph S. Alpert</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>New York Medical College/Westchester Medical Center, Valhalla; Supplements Editor,; The American Journal of Medicine; Department of Medicine, University of Arizona, Tucson; Editor in Chief,; The American Journal of Medicine</t>
+          <t>Editor in Chief,; The American Journal of Medicine; University of Arizona School of Medicine, Tucson</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4318594540</t>
+          <t>https://openalex.org/W4321350851</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Commotio Cordis and the Triumph of Out-of-Hospital Cardiopulmonary Resuscitation</t>
+          <t>The Universal Panacea: Chicken Soup</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>2023-12-01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -830,7 +830,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.amjmed.2023.01.007</t>
+          <t>https://doi.org/10.1016/j.amjmed.2023.02.003</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -840,12 +840,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36736646</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36809812</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.amjmed.2023.01.007</t>
+          <t>https://doi.org/10.1016/j.amjmed.2023.02.003</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -887,22 +887,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Editor in Chief,; The American Journal of Medicine; University of Arizona School of Medicine, Tucson</t>
+          <t>Editor in Chief,; The Amercian Journal of Medicine; University of Arizona School of Medicine, Tucson</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4321350851</t>
+          <t>https://openalex.org/W4317930357</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>The Universal Panacea: Chicken Soup</t>
+          <t>Remarkable Advances in Clinical Medicine that Have Occurred Since I Was an Intern</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.amjmed.2023.02.003</t>
+          <t>https://doi.org/10.1016/j.amjmed.2023.01.003</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -927,12 +927,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -952,12 +952,12 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36809812</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36707014</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.amjmed.2023.02.003</t>
+          <t>https://doi.org/10.1016/j.amjmed.2023.01.003</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -2100,42 +2100,42 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Joseph S. Alpert</t>
+          <t>Susan Alpert, Kiril Solovey, Itzik Klein, Oren Salzman</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>University of Arizona School of Medicine, Editor-in-Chief, The American Journal of Medicin, 1501 N. Campbell Avenue, Tucson, AZ 85724-5037</t>
+          <t xml:space="preserve">; ; ; </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387910389</t>
+          <t>https://openalex.org/W4386721834</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Twelve interesting biological tidbits</t>
+          <t>Inspection planning under execution uncertainty</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-09-12</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>The American Journal of Medicine</t>
+          <t>arXiv (Cornell University)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Cornell University</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.amjmed.2023.10.015</t>
+          <t>https://arxiv.org/abs/2309.06113</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2145,12 +2145,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2170,12 +2170,12 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37879589</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.amjmed.2023.10.015</t>
+          <t>https://doi.org/10.48550/arxiv.2309.06113</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -2192,22 +2192,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>University of Arizona School of Medicine, Tucson</t>
+          <t>University of Arizona School of Medicine, Editor-in-Chief, The American Journal of Medicin, 1501 N. Campbell Avenue, Tucson, AZ 85724-5037</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389849778</t>
+          <t>https://openalex.org/W4387910389</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Should physicians and nurses ever sit on the patient's bed?</t>
+          <t>Twelve interesting biological tidbits</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.amjmed.2023.12.013</t>
+          <t>https://doi.org/10.1016/j.amjmed.2023.10.015</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2232,12 +2232,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2257,12 +2257,12 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/38110068</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37879589</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.amjmed.2023.12.013</t>
+          <t>https://doi.org/10.1016/j.amjmed.2023.10.015</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -2274,42 +2274,42 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Susan Alpert, Kiril Solovey, Itzik Klein, Oren Salzman</t>
+          <t>Joseph S. Alpert</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; </t>
+          <t>University of Arizona School of Medicine, Tucson</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386721834</t>
+          <t>https://openalex.org/W4389849778</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Inspection planning under execution uncertainty</t>
+          <t>Should Physicians and Nurses Ever Sit on the Patient's Bed?</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2023-09-12</t>
+          <t>2023-12-01</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>arXiv (Cornell University)</t>
+          <t>The American Journal of Medicine</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Cornell University</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://arxiv.org/abs/2309.06113</t>
+          <t>https://doi.org/10.1016/j.amjmed.2023.12.013</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2319,12 +2319,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2344,12 +2344,12 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/38110068</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.48550/arxiv.2309.06113</t>
+          <t>https://doi.org/10.1016/j.amjmed.2023.12.013</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
